--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.9589784889088385</v>
+        <v>1.190551169047839</v>
       </c>
       <c r="D2">
-        <v>0.3377076515377206</v>
+        <v>0.2465181130149212</v>
       </c>
       <c r="E2">
         <v>3.416857422794313</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.2733858977679218</v>
+        <v>0.3615216544701667</v>
       </c>
       <c r="D3">
-        <v>0.7845902156572413</v>
+        <v>0.7211584478680613</v>
       </c>
       <c r="E3">
         <v>3.416857422794313</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.06676365465239352</v>
+        <v>0.1135359368632737</v>
       </c>
       <c r="D4">
-        <v>0.9467778069916026</v>
+        <v>0.9106353955660977</v>
       </c>
       <c r="E4">
         <v>3.416857422794313</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.0711013518076066</v>
+        <v>-0.06828372387151962</v>
       </c>
       <c r="D5">
-        <v>0.9433255600387938</v>
+        <v>0.9461766046568483</v>
       </c>
       <c r="E5">
         <v>3.416857422794313</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.083456034799463</v>
+        <v>-1.331382724526328</v>
       </c>
       <c r="D6">
-        <v>0.2787616174269734</v>
+        <v>0.1966954009483943</v>
       </c>
       <c r="E6">
         <v>2.890950949747069</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.060825664857749</v>
+        <v>-1.224488525425866</v>
       </c>
       <c r="D7">
-        <v>0.2889217066909451</v>
+        <v>0.2337187523947764</v>
       </c>
       <c r="E7">
         <v>2.890950949747069</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.076484579881163</v>
+        <v>-0.8202916912524593</v>
       </c>
       <c r="D8">
-        <v>0.2818652441788063</v>
+        <v>0.4208491825866674</v>
       </c>
       <c r="E8">
         <v>2.890950949747069</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.1893272618907264</v>
+        <v>-0.2759829897380232</v>
       </c>
       <c r="D9">
-        <v>0.8498592131931486</v>
+        <v>0.7851370205798123</v>
       </c>
       <c r="E9">
         <v>3.289180394440717</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.3503525613818038</v>
+        <v>-0.2770837388361497</v>
       </c>
       <c r="D10">
-        <v>0.7261180702131318</v>
+        <v>0.7843026387873571</v>
       </c>
       <c r="E10">
         <v>3.289180394440717</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.1368306547237938</v>
+        <v>-0.1314806354323396</v>
       </c>
       <c r="D11">
-        <v>0.8911810573405741</v>
+        <v>0.8965901028683476</v>
       </c>
       <c r="E11">
         <v>3.379272660135936</v>
